--- a/data/グラフ構築実行時間.xlsx
+++ b/data/グラフ構築実行時間.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/054001b904f444c3/ドキュメント/RAG_test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="11_AD4D066CA252ABDACC1048B419D2F48C72EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98EE40ED-BBCC-4770-9DB6-143D726331B9}"/>
+  <xr:revisionPtr revIDLastSave="401" documentId="11_AD4D066CA252ABDACC1048B419D2F48C72EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AED653A-85D8-4E52-9AED-C4D6229FB986}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="241106" sheetId="3" r:id="rId1"/>
+    <sheet name="241105" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -156,6 +157,18 @@
     <t>wikipage_英雄伝説_軌跡シリーズの登場人物.txt</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>nodes_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-16.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-5.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -189,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,12 +234,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -366,21 +387,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2500000"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.1455773941105156"/>
-                  <c:y val="-0.22311175236358019"/>
+                  <c:x val="-0.60684629764205911"/>
+                  <c:y val="0.19681471802461534"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -408,24 +428,9 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:forward val="2300000"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:f>'241106'!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -449,7 +454,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$17</c:f>
+              <c:f>'241106'!$J$2:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -457,16 +462,16 @@
                   <c:v>4.1833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7333333333333334</c:v>
+                  <c:v>29.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.666666666666666</c:v>
+                  <c:v>53.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.966666666666665</c:v>
+                  <c:v>86.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.35</c:v>
+                  <c:v>161.69999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,7 +479,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FD71-4E9A-8C8B-45BC59418219}"/>
+              <c16:uniqueId val="{00000002-E2F9-4A82-9236-83A2303A4DD6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -812,6 +817,1525 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>チャンク</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(X)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>と</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>グラフ構築実行時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(Y)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>の関係性検証</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'241106'!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'241106'!$J$2:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.1833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161.69999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E2F9-4A82-9236-83A2303A4DD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="831269807"/>
+        <c:axId val="675992415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="831269807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X (letters)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675992415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="675992415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y (minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="831269807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>テキスト文字数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(X)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>と</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>総ノード数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(Y)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>の関係性検証</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'241106'!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52841</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'241106'!$J$2:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.1833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161.69999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E2F9-4A82-9236-83A2303A4DD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="831269807"/>
+        <c:axId val="675992415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="831269807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X (letters)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675992415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="675992415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y (minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="831269807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>テキスト文字数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(X)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>とグラフ構築実行時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(Y)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>の関係性検証</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'241106'!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52841</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'241106'!$J$2:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.1833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161.69999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E2F9-4A82-9236-83A2303A4DD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="831269807"/>
+        <c:axId val="675992415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="831269807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X (letters)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675992415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="675992415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y (minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="831269807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="ja-JP"/>
               <a:t>テキスト文字数</a:t>
             </a:r>
@@ -912,8 +2436,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.40599790326522261"/>
-                  <c:y val="-4.4436802575642038E-2"/>
+                  <c:x val="0.1455773941105156"/>
+                  <c:y val="-0.22311175236358019"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -948,9 +2472,24 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:forward val="2300000"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:f>'241105'!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -974,7 +2513,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$17</c:f>
+              <c:f>'241105'!$J$2:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -988,7 +2527,7 @@
                   <c:v>12.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.966666666666665</c:v>
+                  <c:v>21.233333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>26.35</c:v>
@@ -999,7 +2538,1491 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-34E2-42A4-B84E-C058338AD015}"/>
+              <c16:uniqueId val="{00000000-FD71-4E9A-8C8B-45BC59418219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="831269807"/>
+        <c:axId val="675992415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="831269807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2500000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X (letters)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675992415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="675992415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y (minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="831269807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>チャンク内文字</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(X)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>と</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>総ノード数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(Y)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>の関係性検証</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'241105'!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'241105'!$I$2:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD71-4E9A-8C8B-45BC59418219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="831269807"/>
+        <c:axId val="675992415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="831269807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X (letters)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675992415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="675992415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y (minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="831269807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>チャンク内文字</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(X)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>と</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>グラフ構築実行時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(Y)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>の関係性検証</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'241105'!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'241105'!$J$2:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.1833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.233333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD71-4E9A-8C8B-45BC59418219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="831269807"/>
+        <c:axId val="675992415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="831269807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X (letters in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> a chunk</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675992415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="675992415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y (minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="831269807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>テキスト文字数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(X)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>とグラフ構築実行時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(Y)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>の関係性検証</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'241105'!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52841</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'241105'!$J$2:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.1833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.233333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD71-4E9A-8C8B-45BC59418219}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1382,6 +4405,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2414,20 +5677,3273 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>494818</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>212985</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>458647</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>102484</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54256</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>42198</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35A262E-993E-4BBA-AEE4-BC1B08E359C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>615387</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>164757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>645047</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>210996</xdr:rowOff>
+      <xdr:rowOff>162768</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4485367F-AC40-7203-2A73-09DD26D41EE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>24596</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>162768</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>42198</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA6736D-3A79-5CA6-D04D-571C8D54C5F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>494817</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>90426</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>150710</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E810741-FF30-BA8E-7EA6-F40FB1ADA390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>20074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>150712</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>18085</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2454,29 +8970,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>452136</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>229565</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>6029</xdr:rowOff>
+      <xdr:rowOff>80360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>41717</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>596819</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>4040</xdr:rowOff>
+      <xdr:rowOff>78371</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
+        <xdr:cNvPr id="5" name="グラフ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A78CE3E-0291-46C1-91D6-F86CD3192E10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F003FF43-84D1-948D-A94C-24CCB0D5A27D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2485,6 +8999,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>386305</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>681218</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66314</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362C5B4F-BBD8-FBB4-1010-1F51DE878919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289850</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>150712</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>126597</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="グラフ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A73F47-B768-81E8-B35A-9EF968121090}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2759,19 +9345,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9816C256-3EF6-4336-8660-666D6D84F2EF}">
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A18" zoomScale="79" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="41.75" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.375" customWidth="1"/>
+    <col min="20" max="20" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2799,6 +9389,9 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="J1" t="s">
         <v>18</v>
       </c>
@@ -2828,6 +9421,9 @@
       <c r="H2" s="1">
         <v>11</v>
       </c>
+      <c r="I2">
+        <v>365</v>
+      </c>
       <c r="J2">
         <f>H2/60+G2+F2*60</f>
         <v>4.1833333333333336</v>
@@ -2844,23 +9440,26 @@
         <v>19682</v>
       </c>
       <c r="D3" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>987</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J8" si="0">H3/60+G3+F3*60</f>
-        <v>7.7333333333333334</v>
+        <v>29.05</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -2875,23 +9474,26 @@
         <v>52841</v>
       </c>
       <c r="D4" s="1">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1">
-        <v>80</v>
+        <v>630</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2099</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>12.666666666666666</v>
+        <v>53.133333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1">
@@ -2902,12 +9504,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
       <c r="J5" s="2">
         <f>H5/60+G5+F5*60</f>
         <v>0</v>
@@ -2921,12 +9524,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2940,12 +9544,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2959,12 +9564,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2975,29 +9581,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>99752</v>
       </c>
       <c r="D9" s="1">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1">
-        <v>75</v>
+        <v>1147</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1">
-        <v>58</v>
+        <v>33</v>
+      </c>
+      <c r="I9">
+        <v>3900</v>
       </c>
       <c r="J9">
         <f>H9/60+G9+F9*60</f>
-        <v>19.966666666666665</v>
+        <v>86.55</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1">
@@ -3010,9 +9619,10 @@
       <c r="C10">
         <v>24798</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1"/>
       <c r="J10">
         <f t="shared" ref="J10:J18" si="1">H10/60+G10+F10*60</f>
         <v>0</v>
@@ -3028,9 +9638,10 @@
       <c r="C11">
         <v>10810</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1"/>
       <c r="J11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3046,9 +9657,10 @@
       <c r="C12">
         <v>8591</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="J12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3064,9 +9676,10 @@
       <c r="C13">
         <v>7117</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="J13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3082,9 +9695,10 @@
       <c r="C14">
         <v>22877</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
+      <c r="D14" s="1">
+        <v>100</v>
+      </c>
+      <c r="F14" s="1"/>
       <c r="J14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3100,9 +9714,10 @@
       <c r="C15" s="1">
         <v>8960</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="J15">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3119,56 +9734,50 @@
         <v>29227</v>
       </c>
       <c r="D16" s="1">
-        <v>400</v>
-      </c>
-      <c r="E16" s="1">
-        <v>77</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>11</v>
-      </c>
-      <c r="H16" s="1">
-        <v>22</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>11.366666666666667</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>211891</v>
       </c>
       <c r="D17" s="1">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1">
-        <v>74</v>
+        <v>2394</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H17" s="1">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>8530</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>26.35</v>
+        <v>161.69999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3179,18 +9788,19 @@
         <v>330107</v>
       </c>
       <c r="D18" s="1">
-        <v>4500</v>
-      </c>
-      <c r="E18" s="1">
-        <v>74</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="R19" s="1"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="R23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3200,6 +9810,469 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="41.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8691</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>365</v>
+      </c>
+      <c r="J2">
+        <f>H2/60+G2+F2*60</f>
+        <v>4.1833333333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19682</v>
+      </c>
+      <c r="D3" s="1">
+        <v>300</v>
+      </c>
+      <c r="E3" s="1">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44</v>
+      </c>
+      <c r="I3">
+        <v>635</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="0">H3/60+G3+F3*60</f>
+        <v>7.7333333333333334</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>52841</v>
+      </c>
+      <c r="D4" s="1">
+        <v>700</v>
+      </c>
+      <c r="E4" s="1">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>687</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>12.666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="J5" s="2">
+        <f>H5/60+G5+F5*60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>99752</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="1">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1">
+        <v>14</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1081</v>
+      </c>
+      <c r="J9">
+        <f>H9/60+G9+F9*60</f>
+        <v>21.233333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>24798</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10">
+        <f t="shared" ref="J10:J18" si="1">H10/60+G10+F10*60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>10810</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>8591</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>7117</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>22877</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8960</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1">
+        <v>29227</v>
+      </c>
+      <c r="D16" s="1">
+        <v>400</v>
+      </c>
+      <c r="E16" s="1">
+        <v>77</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1">
+        <v>22</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>11.366666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1">
+        <v>211891</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1">
+        <v>21</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1917</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>26.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1">
+        <v>330107</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E18" s="1">
+        <v>74</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BEFD16-83A9-4454-94B0-BFEE05A98873}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -3207,7 +10280,7 @@
       <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
